--- a/Data/Campaign 2_Gifting.xlsx
+++ b/Data/Campaign 2_Gifting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utkarshvirendranigam/Desktop/Summer 2020/Visualization of Complex Data/Project/Project 2/Raw Data/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4450D83E-CEF5-F24D-8BED-6F5E4101461B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B213D72-F237-E142-ABC4-6E3FB1F1A2C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trended" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="87">
   <si>
     <t>Revenue</t>
   </si>
@@ -289,18 +289,6 @@
   </si>
   <si>
     <t>Himalayan Salt Lamp - Natural Hand Carved Himalayan Pink Salt Lamp, 5-7 lbs PRODUCT 21285551</t>
-  </si>
-  <si>
-    <t>Wednesday before Thanksgiving 2019</t>
-  </si>
-  <si>
-    <t>Cyber Monday 2019</t>
-  </si>
-  <si>
-    <t>Thanksgiving 2019</t>
-  </si>
-  <si>
-    <t>Black Friday 2019</t>
   </si>
   <si>
     <t>Mobile Phone</t>
@@ -316,9 +304,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -797,21 +782,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1170,7 +1154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118BE86B-90CD-B045-9A4C-B174D1270C39}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1181,17 +1165,17 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="4">
         <v>43770</v>
       </c>
       <c r="B2">
@@ -1205,7 +1189,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="4">
         <v>43771</v>
       </c>
       <c r="B3">
@@ -1219,7 +1203,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="4">
         <v>43772</v>
       </c>
       <c r="B4">
@@ -1233,7 +1217,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="4">
         <v>43773</v>
       </c>
       <c r="B5">
@@ -1247,7 +1231,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="4">
         <v>43774</v>
       </c>
       <c r="B6">
@@ -1261,7 +1245,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="4">
         <v>43775</v>
       </c>
       <c r="B7">
@@ -1275,7 +1259,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="4">
         <v>43776</v>
       </c>
       <c r="B8">
@@ -1289,7 +1273,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="4">
         <v>43777</v>
       </c>
       <c r="B9">
@@ -1303,7 +1287,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="4">
         <v>43778</v>
       </c>
       <c r="B10">
@@ -1317,7 +1301,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="A11" s="4">
         <v>43779</v>
       </c>
       <c r="B11">
@@ -1331,7 +1315,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="4">
         <v>43780</v>
       </c>
       <c r="B12">
@@ -1345,7 +1329,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="A13" s="4">
         <v>43781</v>
       </c>
       <c r="B13">
@@ -1359,7 +1343,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="A14" s="4">
         <v>43782</v>
       </c>
       <c r="B14">
@@ -1373,7 +1357,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="A15" s="4">
         <v>43783</v>
       </c>
       <c r="B15">
@@ -1387,7 +1371,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="A16" s="4">
         <v>43784</v>
       </c>
       <c r="B16">
@@ -1401,7 +1385,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="A17" s="4">
         <v>43785</v>
       </c>
       <c r="B17">
@@ -1415,7 +1399,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="A18" s="4">
         <v>43786</v>
       </c>
       <c r="B18">
@@ -1429,7 +1413,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="A19" s="4">
         <v>43787</v>
       </c>
       <c r="B19">
@@ -1443,7 +1427,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="A20" s="4">
         <v>43788</v>
       </c>
       <c r="B20">
@@ -1457,7 +1441,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="A21" s="4">
         <v>43789</v>
       </c>
       <c r="B21">
@@ -1471,7 +1455,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+      <c r="A22" s="4">
         <v>43790</v>
       </c>
       <c r="B22">
@@ -1485,7 +1469,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+      <c r="A23" s="4">
         <v>43791</v>
       </c>
       <c r="B23">
@@ -1499,7 +1483,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+      <c r="A24" s="4">
         <v>43792</v>
       </c>
       <c r="B24">
@@ -1513,7 +1497,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="A25" s="4">
         <v>43793</v>
       </c>
       <c r="B25">
@@ -1527,7 +1511,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+      <c r="A26" s="4">
         <v>43794</v>
       </c>
       <c r="B26">
@@ -1541,7 +1525,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="A27" s="4">
         <v>43795</v>
       </c>
       <c r="B27">
@@ -1555,7 +1539,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+      <c r="A28" s="4">
         <v>43796</v>
       </c>
       <c r="B28">
@@ -1569,7 +1553,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+      <c r="A29" s="4">
         <v>43797</v>
       </c>
       <c r="B29">
@@ -1583,7 +1567,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+      <c r="A30" s="4">
         <v>43798</v>
       </c>
       <c r="B30">
@@ -1597,7 +1581,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+      <c r="A31" s="4">
         <v>43799</v>
       </c>
       <c r="B31">
@@ -1611,7 +1595,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+      <c r="A32" s="4">
         <v>43800</v>
       </c>
       <c r="B32">
@@ -1625,7 +1609,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="A33" s="4">
         <v>43801</v>
       </c>
       <c r="B33">
@@ -1639,7 +1623,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+      <c r="A34" s="4">
         <v>43802</v>
       </c>
       <c r="B34">
@@ -1653,7 +1637,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+      <c r="A35" s="4">
         <v>43803</v>
       </c>
       <c r="B35">
@@ -1667,7 +1651,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+      <c r="A36" s="4">
         <v>43804</v>
       </c>
       <c r="B36">
@@ -1681,7 +1665,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+      <c r="A37" s="4">
         <v>43805</v>
       </c>
       <c r="B37">
@@ -1695,7 +1679,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
+      <c r="A38" s="4">
         <v>43806</v>
       </c>
       <c r="B38">
@@ -1709,7 +1693,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+      <c r="A39" s="4">
         <v>43807</v>
       </c>
       <c r="B39">
@@ -1723,7 +1707,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+      <c r="A40" s="4">
         <v>43808</v>
       </c>
       <c r="B40">
@@ -1737,7 +1721,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
+      <c r="A41" s="4">
         <v>43809</v>
       </c>
       <c r="B41">
@@ -1751,7 +1735,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+      <c r="A42" s="4">
         <v>43810</v>
       </c>
       <c r="B42">
@@ -1765,7 +1749,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
+      <c r="A43" s="4">
         <v>43811</v>
       </c>
       <c r="B43">
@@ -1779,7 +1763,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
+      <c r="A44" s="4">
         <v>43812</v>
       </c>
       <c r="B44">
@@ -1793,7 +1777,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+      <c r="A45" s="4">
         <v>43813</v>
       </c>
       <c r="B45">
@@ -1807,7 +1791,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
+      <c r="A46" s="4">
         <v>43814</v>
       </c>
       <c r="B46">
@@ -1821,7 +1805,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
+      <c r="A47" s="4">
         <v>43815</v>
       </c>
       <c r="B47">
@@ -1835,7 +1819,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
+      <c r="A48" s="4">
         <v>43816</v>
       </c>
       <c r="B48">
@@ -1849,7 +1833,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
+      <c r="A49" s="4">
         <v>43817</v>
       </c>
       <c r="B49">
@@ -1863,7 +1847,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
+      <c r="A50" s="4">
         <v>43818</v>
       </c>
       <c r="B50">
@@ -1877,7 +1861,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
+      <c r="A51" s="4">
         <v>43819</v>
       </c>
       <c r="B51">
@@ -1891,7 +1875,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
+      <c r="A52" s="4">
         <v>43820</v>
       </c>
       <c r="B52">
@@ -1905,7 +1889,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
+      <c r="A53" s="4">
         <v>43821</v>
       </c>
       <c r="B53">
@@ -1919,7 +1903,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
+      <c r="A54" s="4">
         <v>43822</v>
       </c>
       <c r="B54">
@@ -1933,7 +1917,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
+      <c r="A55" s="4">
         <v>43823</v>
       </c>
       <c r="B55">
@@ -1947,7 +1931,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
+      <c r="A56" s="4">
         <v>43824</v>
       </c>
       <c r="B56">
@@ -1961,7 +1945,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
+      <c r="A57" s="4">
         <v>43825</v>
       </c>
       <c r="B57">
@@ -1975,7 +1959,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
+      <c r="A58" s="4">
         <v>43826</v>
       </c>
       <c r="B58">
@@ -1989,7 +1973,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
+      <c r="A59" s="4">
         <v>43827</v>
       </c>
       <c r="B59">
@@ -2003,7 +1987,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
+      <c r="A60" s="4">
         <v>43828</v>
       </c>
       <c r="B60">
@@ -2017,7 +2001,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
+      <c r="A61" s="4">
         <v>43829</v>
       </c>
       <c r="B61">
@@ -2031,7 +2015,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
+      <c r="A62" s="4">
         <v>43830</v>
       </c>
       <c r="B62">
@@ -2053,14 +2037,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="4"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
@@ -2074,7 +2061,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>43770</v>
       </c>
       <c r="B2">
@@ -2088,7 +2075,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>43771</v>
       </c>
       <c r="B3">
@@ -2102,7 +2089,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>43772</v>
       </c>
       <c r="B4">
@@ -2116,7 +2103,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>43773</v>
       </c>
       <c r="B5">
@@ -2130,7 +2117,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>43774</v>
       </c>
       <c r="B6">
@@ -2144,7 +2131,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>43775</v>
       </c>
       <c r="B7">
@@ -2158,7 +2145,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>43776</v>
       </c>
       <c r="B8">
@@ -2172,7 +2159,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>43777</v>
       </c>
       <c r="B9">
@@ -2186,7 +2173,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>43778</v>
       </c>
       <c r="B10">
@@ -2200,7 +2187,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>43779</v>
       </c>
       <c r="B11">
@@ -2214,7 +2201,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>43780</v>
       </c>
       <c r="B12">
@@ -2228,7 +2215,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>43781</v>
       </c>
       <c r="B13">
@@ -2242,7 +2229,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>43782</v>
       </c>
       <c r="B14">
@@ -2256,7 +2243,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>43783</v>
       </c>
       <c r="B15">
@@ -2270,7 +2257,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>43784</v>
       </c>
       <c r="B16">
@@ -2284,7 +2271,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>43785</v>
       </c>
       <c r="B17">
@@ -2298,7 +2285,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>43786</v>
       </c>
       <c r="B18">
@@ -2312,7 +2299,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>43787</v>
       </c>
       <c r="B19">
@@ -2326,7 +2313,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="4">
         <v>43788</v>
       </c>
       <c r="B20">
@@ -2340,7 +2327,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>43789</v>
       </c>
       <c r="B21">
@@ -2354,7 +2341,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22" s="4">
         <v>43790</v>
       </c>
       <c r="B22">
@@ -2368,7 +2355,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>43791</v>
       </c>
       <c r="B23">
@@ -2382,7 +2369,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="A24" s="4">
         <v>43792</v>
       </c>
       <c r="B24">
@@ -2396,7 +2383,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25" s="4">
         <v>43793</v>
       </c>
       <c r="B25">
@@ -2410,7 +2397,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="A26" s="4">
         <v>43794</v>
       </c>
       <c r="B26">
@@ -2424,7 +2411,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="A27" s="4">
         <v>43795</v>
       </c>
       <c r="B27">
@@ -2438,7 +2425,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="A28" s="4">
         <v>43796</v>
       </c>
       <c r="B28">
@@ -2452,7 +2439,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="A29" s="4">
         <v>43797</v>
       </c>
       <c r="B29">
@@ -2466,7 +2453,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="A30" s="4">
         <v>43798</v>
       </c>
       <c r="B30">
@@ -2480,7 +2467,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="A31" s="4">
         <v>43799</v>
       </c>
       <c r="B31">
@@ -2494,7 +2481,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="A32" s="4">
         <v>43800</v>
       </c>
       <c r="B32">
@@ -2508,7 +2495,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="A33" s="4">
         <v>43801</v>
       </c>
       <c r="B33">
@@ -2522,7 +2509,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="A34" s="4">
         <v>43802</v>
       </c>
       <c r="B34">
@@ -2536,7 +2523,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="A35" s="4">
         <v>43803</v>
       </c>
       <c r="B35">
@@ -2550,7 +2537,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="A36" s="4">
         <v>43804</v>
       </c>
       <c r="B36">
@@ -2564,7 +2551,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+      <c r="A37" s="4">
         <v>43805</v>
       </c>
       <c r="B37">
@@ -2578,7 +2565,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+      <c r="A38" s="4">
         <v>43806</v>
       </c>
       <c r="B38">
@@ -2592,7 +2579,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+      <c r="A39" s="4">
         <v>43807</v>
       </c>
       <c r="B39">
@@ -2606,7 +2593,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="A40" s="4">
         <v>43808</v>
       </c>
       <c r="B40">
@@ -2620,7 +2607,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+      <c r="A41" s="4">
         <v>43809</v>
       </c>
       <c r="B41">
@@ -2634,7 +2621,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+      <c r="A42" s="4">
         <v>43810</v>
       </c>
       <c r="B42">
@@ -2648,7 +2635,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+      <c r="A43" s="4">
         <v>43811</v>
       </c>
       <c r="B43">
@@ -2662,7 +2649,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="A44" s="4">
         <v>43812</v>
       </c>
       <c r="B44">
@@ -2676,7 +2663,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+      <c r="A45" s="4">
         <v>43813</v>
       </c>
       <c r="B45">
@@ -2690,7 +2677,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+      <c r="A46" s="4">
         <v>43814</v>
       </c>
       <c r="B46">
@@ -2704,7 +2691,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+      <c r="A47" s="4">
         <v>43815</v>
       </c>
       <c r="B47">
@@ -2718,7 +2705,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+      <c r="A48" s="4">
         <v>43816</v>
       </c>
       <c r="B48">
@@ -2732,7 +2719,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+      <c r="A49" s="4">
         <v>43817</v>
       </c>
       <c r="B49">
@@ -2746,7 +2733,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+      <c r="A50" s="4">
         <v>43818</v>
       </c>
       <c r="B50">
@@ -2760,7 +2747,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+      <c r="A51" s="4">
         <v>43819</v>
       </c>
       <c r="B51">
@@ -2774,7 +2761,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+      <c r="A52" s="4">
         <v>43820</v>
       </c>
       <c r="B52">
@@ -2788,7 +2775,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+      <c r="A53" s="4">
         <v>43821</v>
       </c>
       <c r="B53">
@@ -2802,7 +2789,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
+      <c r="A54" s="4">
         <v>43822</v>
       </c>
       <c r="B54">
@@ -2816,7 +2803,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
+      <c r="A55" s="4">
         <v>43823</v>
       </c>
       <c r="B55">
@@ -2830,7 +2817,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
+      <c r="A56" s="4">
         <v>43824</v>
       </c>
       <c r="B56">
@@ -2844,7 +2831,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
+      <c r="A57" s="4">
         <v>43825</v>
       </c>
       <c r="B57">
@@ -2858,7 +2845,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
+      <c r="A58" s="4">
         <v>43826</v>
       </c>
       <c r="B58">
@@ -2872,7 +2859,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
+      <c r="A59" s="4">
         <v>43827</v>
       </c>
       <c r="B59">
@@ -2886,7 +2873,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
+      <c r="A60" s="4">
         <v>43828</v>
       </c>
       <c r="B60">
@@ -2900,7 +2887,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
+      <c r="A61" s="4">
         <v>43829</v>
       </c>
       <c r="B61">
@@ -2914,7 +2901,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
+      <c r="A62" s="4">
         <v>43830</v>
       </c>
       <c r="B62">
@@ -2937,7 +2924,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2962,7 +2949,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -2976,7 +2963,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -2990,7 +2977,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -3004,7 +2991,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -3018,7 +3005,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -3032,7 +3019,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -3046,7 +3033,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -3060,7 +3047,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -3074,7 +3061,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -3088,7 +3075,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
         <v>79</v>
@@ -3102,7 +3089,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -3116,7 +3103,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -3130,7 +3117,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
         <v>80</v>
@@ -3144,7 +3131,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
         <v>81</v>
@@ -3158,7 +3145,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -3172,7 +3159,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
         <v>81</v>
@@ -3186,7 +3173,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
@@ -3200,7 +3187,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
         <v>77</v>
@@ -3214,7 +3201,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
         <v>83</v>
@@ -3228,7 +3215,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
         <v>75</v>
@@ -3250,7 +3237,7 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="H46" sqref="H46:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3289,7 +3276,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -3318,7 +3305,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1">
         <v>4.1666666666666664E-2</v>
@@ -3339,7 +3326,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1">
         <v>8.3333333333333329E-2</v>
@@ -3360,7 +3347,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1">
         <v>0.125</v>
@@ -3381,7 +3368,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1">
         <v>0.16666666666666666</v>
@@ -3410,7 +3397,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1">
         <v>0.20833333333333334</v>
@@ -3431,7 +3418,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1">
         <v>0.25</v>
@@ -3452,7 +3439,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1">
         <v>0.29166666666666669</v>
@@ -3473,7 +3460,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1">
         <v>0.33333333333333331</v>
@@ -3502,7 +3489,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1">
         <v>0.375</v>
@@ -3523,7 +3510,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1">
         <v>0.41666666666666669</v>
@@ -3544,7 +3531,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1">
         <v>0.45833333333333331</v>
@@ -3565,7 +3552,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1">
         <v>0.5</v>
@@ -3594,7 +3581,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1">
         <v>0.54166666666666663</v>
@@ -3615,7 +3602,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1">
         <v>0.58333333333333337</v>
@@ -3636,7 +3623,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1">
         <v>0.625</v>
@@ -3657,7 +3644,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1">
         <v>0.66666666666666663</v>
@@ -3686,7 +3673,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1">
         <v>0.70833333333333337</v>
@@ -3707,7 +3694,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B20" s="1">
         <v>0.75</v>
@@ -3728,7 +3715,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B21" s="1">
         <v>0.79166666666666663</v>
@@ -3749,7 +3736,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1">
         <v>0.83333333333333337</v>
@@ -3778,7 +3765,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1">
         <v>0.875</v>
@@ -3799,7 +3786,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1">
         <v>0.91666666666666663</v>
@@ -3820,7 +3807,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B25" s="1">
         <v>0.95833333333333337</v>
@@ -3841,7 +3828,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -3870,7 +3857,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B27" s="1">
         <v>4.1666666666666664E-2</v>
@@ -3891,7 +3878,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B28" s="1">
         <v>8.3333333333333329E-2</v>
@@ -3912,7 +3899,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B29" s="1">
         <v>0.125</v>
@@ -3933,7 +3920,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B30" s="1">
         <v>0.16666666666666666</v>
@@ -3962,7 +3949,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B31" s="1">
         <v>0.20833333333333334</v>
@@ -3983,7 +3970,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B32" s="1">
         <v>0.25</v>
@@ -4004,7 +3991,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B33" s="1">
         <v>0.29166666666666669</v>
@@ -4025,7 +4012,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B34" s="1">
         <v>0.33333333333333331</v>
@@ -4054,7 +4041,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B35" s="1">
         <v>0.375</v>
@@ -4075,7 +4062,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B36" s="1">
         <v>0.41666666666666669</v>
@@ -4096,7 +4083,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B37" s="1">
         <v>0.45833333333333331</v>
@@ -4117,7 +4104,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B38" s="1">
         <v>0.5</v>
@@ -4146,7 +4133,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B39" s="1">
         <v>0.54166666666666663</v>
@@ -4167,7 +4154,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B40" s="1">
         <v>0.58333333333333337</v>
@@ -4188,7 +4175,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B41" s="1">
         <v>0.625</v>
@@ -4209,7 +4196,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B42" s="1">
         <v>0.66666666666666663</v>
@@ -4238,7 +4225,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B43" s="1">
         <v>0.70833333333333337</v>
@@ -4259,7 +4246,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B44" s="1">
         <v>0.75</v>
@@ -4280,7 +4267,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B45" s="1">
         <v>0.79166666666666663</v>
@@ -4301,7 +4288,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B46" s="1">
         <v>0.83333333333333337</v>
@@ -4330,7 +4317,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B47" s="1">
         <v>0.875</v>
@@ -4351,7 +4338,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B48" s="1">
         <v>0.91666666666666663</v>
@@ -4372,7 +4359,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B49" s="1">
         <v>0.95833333333333337</v>
@@ -4393,7 +4380,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
@@ -4422,7 +4409,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B51" s="1">
         <v>4.1666666666666664E-2</v>
@@ -4443,7 +4430,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B52" s="1">
         <v>8.3333333333333329E-2</v>
@@ -4464,7 +4451,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B53" s="1">
         <v>0.125</v>
@@ -4485,7 +4472,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B54" s="1">
         <v>0.16666666666666666</v>
@@ -4514,7 +4501,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B55" s="1">
         <v>0.20833333333333334</v>
@@ -4535,7 +4522,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B56" s="1">
         <v>0.25</v>
@@ -4556,7 +4543,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B57" s="1">
         <v>0.29166666666666669</v>
@@ -4577,7 +4564,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B58" s="1">
         <v>0.33333333333333331</v>
@@ -4606,7 +4593,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B59" s="1">
         <v>0.375</v>
@@ -4627,7 +4614,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B60" s="1">
         <v>0.41666666666666669</v>
@@ -4648,7 +4635,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B61" s="1">
         <v>0.45833333333333331</v>
@@ -4669,7 +4656,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B62" s="1">
         <v>0.5</v>
@@ -4698,7 +4685,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B63" s="1">
         <v>0.54166666666666663</v>
@@ -4719,7 +4706,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B64" s="1">
         <v>0.58333333333333337</v>
@@ -4740,7 +4727,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B65" s="1">
         <v>0.625</v>
@@ -4761,7 +4748,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B66" s="1">
         <v>0.66666666666666663</v>
@@ -4790,7 +4777,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B67" s="1">
         <v>0.70833333333333337</v>
@@ -4811,7 +4798,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B68" s="1">
         <v>0.75</v>
@@ -4832,7 +4819,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1">
         <v>0.79166666666666663</v>
@@ -4853,7 +4840,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B70" s="1">
         <v>0.83333333333333337</v>
@@ -4882,7 +4869,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B71" s="1">
         <v>0.875</v>
@@ -4903,7 +4890,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B72" s="1">
         <v>0.91666666666666663</v>
@@ -4924,7 +4911,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B73" s="1">
         <v>0.95833333333333337</v>
@@ -4945,7 +4932,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B74" s="1">
         <v>0</v>
@@ -4974,7 +4961,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B75" s="1">
         <v>4.1666666666666664E-2</v>
@@ -4995,7 +4982,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B76" s="1">
         <v>8.3333333333333329E-2</v>
@@ -5016,7 +5003,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B77" s="1">
         <v>0.125</v>
@@ -5037,7 +5024,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B78" s="1">
         <v>0.16666666666666666</v>
@@ -5066,7 +5053,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B79" s="1">
         <v>0.20833333333333334</v>
@@ -5087,7 +5074,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B80" s="1">
         <v>0.25</v>
@@ -5108,7 +5095,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B81" s="1">
         <v>0.29166666666666669</v>
@@ -5129,7 +5116,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B82" s="1">
         <v>0.33333333333333331</v>
@@ -5158,7 +5145,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B83" s="1">
         <v>0.375</v>
@@ -5179,7 +5166,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B84" s="1">
         <v>0.41666666666666669</v>
@@ -5200,7 +5187,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B85" s="1">
         <v>0.45833333333333331</v>
@@ -5221,7 +5208,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B86" s="1">
         <v>0.5</v>
@@ -5250,7 +5237,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B87" s="1">
         <v>0.54166666666666663</v>
@@ -5271,7 +5258,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B88" s="1">
         <v>0.58333333333333337</v>
@@ -5292,7 +5279,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B89" s="1">
         <v>0.625</v>
@@ -5313,7 +5300,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B90" s="1">
         <v>0.66666666666666663</v>
@@ -5342,7 +5329,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B91" s="1">
         <v>0.70833333333333337</v>
@@ -5363,7 +5350,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B92" s="1">
         <v>0.75</v>
@@ -5384,7 +5371,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B93" s="1">
         <v>0.79166666666666663</v>
@@ -5405,7 +5392,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B94" s="1">
         <v>0.83333333333333337</v>
@@ -5434,7 +5421,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B95" s="1">
         <v>0.875</v>
@@ -5455,7 +5442,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B96" s="1">
         <v>0.91666666666666663</v>
@@ -5476,7 +5463,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B97" s="1">
         <v>0.95833333333333337</v>
@@ -5497,23 +5484,69 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="H94:H97"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="H74:H77"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="H82:H85"/>
-    <mergeCell ref="H86:H89"/>
-    <mergeCell ref="H90:H93"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="I82:I85"/>
+    <mergeCell ref="I86:I89"/>
+    <mergeCell ref="I90:I93"/>
+    <mergeCell ref="I94:I97"/>
+    <mergeCell ref="I62:I65"/>
+    <mergeCell ref="I66:I69"/>
+    <mergeCell ref="I70:I73"/>
+    <mergeCell ref="I74:I77"/>
+    <mergeCell ref="I78:I81"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="I46:I49"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="I54:I57"/>
+    <mergeCell ref="I58:I61"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="G74:G77"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="F82:F85"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="F90:F93"/>
+    <mergeCell ref="F94:F97"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="G78:G81"/>
     <mergeCell ref="G82:G85"/>
     <mergeCell ref="G86:G89"/>
     <mergeCell ref="G90:G93"/>
@@ -5530,69 +5563,23 @@
     <mergeCell ref="G70:G73"/>
     <mergeCell ref="H66:H69"/>
     <mergeCell ref="H22:H25"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="F90:F93"/>
-    <mergeCell ref="F94:F97"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="F82:F85"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="G74:G77"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="I38:I41"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="I46:I49"/>
-    <mergeCell ref="I50:I53"/>
-    <mergeCell ref="I54:I57"/>
-    <mergeCell ref="I58:I61"/>
-    <mergeCell ref="I82:I85"/>
-    <mergeCell ref="I86:I89"/>
-    <mergeCell ref="I90:I93"/>
-    <mergeCell ref="I94:I97"/>
-    <mergeCell ref="I62:I65"/>
-    <mergeCell ref="I66:I69"/>
-    <mergeCell ref="I70:I73"/>
-    <mergeCell ref="I74:I77"/>
-    <mergeCell ref="I78:I81"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="H94:H97"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="H74:H77"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="H82:H85"/>
+    <mergeCell ref="H86:H89"/>
+    <mergeCell ref="H90:H93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5636,280 +5623,280 @@
       <c r="F1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>28038.959999999999</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>14906.41</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>6885.35</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>14456.31</v>
       </c>
       <c r="F2">
         <v>64287.029999999992</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>393.35</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>953.41</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>589.41</v>
       </c>
       <c r="F3">
         <v>1936.17</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="4"/>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4"/>
-      <c r="AX3" s="4"/>
-      <c r="AY3" s="4"/>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4"/>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="4"/>
-      <c r="BD3" s="4"/>
-      <c r="BE3" s="4"/>
-      <c r="BF3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>18996.79</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>10198.64</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>10177.57</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>18885.599999999999</v>
       </c>
       <c r="F4">
         <v>58258.6</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="4"/>
-      <c r="BF4" s="4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>16311.3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>6203.15</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>4158.54</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>6876.81</v>
       </c>
       <c r="F5">
@@ -5917,19 +5904,19 @@
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>66920.160000000003</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>45550.59</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>52038.9</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>91497.46</v>
       </c>
       <c r="F6">
@@ -5937,19 +5924,19 @@
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>12099.48</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>4894.2</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>5867.48</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>10554.28</v>
       </c>
       <c r="F7">
@@ -5957,19 +5944,19 @@
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>8366.36</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>4129.4799999999996</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>5682.59</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>10099.02</v>
       </c>
       <c r="F8">
@@ -5977,19 +5964,19 @@
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>745.23</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>1905.62</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>1129.3399999999999</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>2882.36</v>
       </c>
       <c r="F9">
@@ -5997,19 +5984,19 @@
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>80543.66</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>39309.519999999997</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>32236.27</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>69619.39</v>
       </c>
       <c r="F10">
@@ -6017,19 +6004,19 @@
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>68971.77</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>31427.77</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>23061.15</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>41100.379999999997</v>
       </c>
       <c r="F11">
@@ -6037,19 +6024,19 @@
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>3436.92</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>1514.67</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>1287.8599999999999</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>771.01</v>
       </c>
       <c r="F12">
@@ -6057,19 +6044,19 @@
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>3522.82</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>3656.97</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>2010.28</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>4864.22</v>
       </c>
       <c r="F13">
@@ -6077,19 +6064,19 @@
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>39973.74</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>14813.56</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>14307.73</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>23276.2</v>
       </c>
       <c r="F14">
@@ -6097,19 +6084,19 @@
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>20299.86</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>8658.57</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>6310.15</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>14650.39</v>
       </c>
       <c r="F15">
@@ -6117,19 +6104,19 @@
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>6258.35</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>3903.26</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>1602.91</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>4698.26</v>
       </c>
       <c r="F16">
@@ -6137,19 +6124,19 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>10391.049999999999</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>4072.2</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>2725.6</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>7239.69</v>
       </c>
       <c r="F17">
@@ -6157,19 +6144,19 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>20764.72</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>12454.22</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>6813.58</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>10687.9</v>
       </c>
       <c r="F18">
@@ -6177,19 +6164,19 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>23685.03</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>12183.32</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>6098.94</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>14218.7</v>
       </c>
       <c r="F19">
@@ -6197,19 +6184,19 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>2759.56</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>2525.61</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>1960.56</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>2252.9699999999998</v>
       </c>
       <c r="F20">
@@ -6217,19 +6204,19 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>25559.759999999998</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>14541.73</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>12707.78</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>27647.27</v>
       </c>
       <c r="F21">
@@ -6237,19 +6224,19 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>7426.14</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>8207.16</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>9494.27</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>17715.560000000001</v>
       </c>
       <c r="F22">
@@ -6257,19 +6244,19 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>20695.73</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>13231.95</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>14158.93</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>22754.39</v>
       </c>
       <c r="F23">
@@ -6277,19 +6264,19 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>13260.18</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>5461.17</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>8330.98</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>9625.59</v>
       </c>
       <c r="F24">
@@ -6297,19 +6284,19 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>17797.68</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>7512.55</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>3441.87</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>5017.66</v>
       </c>
       <c r="F25">
@@ -6317,19 +6304,19 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>17683.419999999998</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>8135.31</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>9039.8799999999992</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>15696.47</v>
       </c>
       <c r="F26">
@@ -6337,19 +6324,19 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>1345.14</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>526.29999999999995</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>2263.0300000000002</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>1657.78</v>
       </c>
       <c r="F27">
@@ -6357,19 +6344,19 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>7138.41</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>2967.1</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>2962.08</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>4337.13</v>
       </c>
       <c r="F28">
@@ -6377,19 +6364,19 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>12448</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>3209.46</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>4024.13</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>6654.46</v>
       </c>
       <c r="F29">
@@ -6397,19 +6384,19 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>3591.42</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>1456.17</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>1910.79</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>2137.31</v>
       </c>
       <c r="F30">
@@ -6417,19 +6404,19 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>29342.21</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>14300.11</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>17688.36</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>31561.74</v>
       </c>
       <c r="F31">
@@ -6437,19 +6424,19 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>3065.33</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>1735.23</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>1835.18</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>3043.39</v>
       </c>
       <c r="F32">
@@ -6457,19 +6444,19 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>40341.74</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>28456.959999999999</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>31761.83</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>67264.289999999994</v>
       </c>
       <c r="F33">
@@ -6477,19 +6464,19 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>45278.81</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>26509.31</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>17400.59</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>25025.599999999999</v>
       </c>
       <c r="F34">
@@ -6497,19 +6484,19 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>2667.39</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>630.98</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>733.87</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>1941.61</v>
       </c>
       <c r="F35">
@@ -6517,19 +6504,19 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>35931.58</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>19576.84</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>11212.13</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>28354.51</v>
       </c>
       <c r="F36">
@@ -6537,19 +6524,19 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>12336.6</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>6853.89</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>4387.1499999999996</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>5508.55</v>
       </c>
       <c r="F37">
@@ -6557,19 +6544,19 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>7914.87</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>4026.79</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>5453.2</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>7996.76</v>
       </c>
       <c r="F38">
@@ -6577,19 +6564,19 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>43684.73</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>28118.45</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>18078.37</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>40438.14</v>
       </c>
       <c r="F39">
@@ -6597,19 +6584,19 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>1071.53</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>4439.67</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>3984.68</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>1964.74</v>
       </c>
       <c r="F40">
@@ -6617,19 +6604,19 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>20049.78</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>9237.2900000000009</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>9024.65</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <v>11315.35</v>
       </c>
       <c r="F41">
@@ -6637,19 +6624,19 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>2942.59</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>574.44000000000005</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>534.97</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3">
         <v>831.78</v>
       </c>
       <c r="F42">
@@ -6657,19 +6644,19 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>38454.03</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>11611.81</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>11841.8</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="3">
         <v>19582.78</v>
       </c>
       <c r="F43">
@@ -6677,19 +6664,19 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>94493.42</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>47948.36</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>46756.57</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <v>84074.47</v>
       </c>
       <c r="F44">
@@ -6697,19 +6684,19 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>1295.6199999999999</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>7346.53</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>7078.84</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <v>8727.9500000000007</v>
       </c>
       <c r="F45">
@@ -6717,19 +6704,19 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>26821.78</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>1309.0999999999999</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <v>610.28</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="3">
         <v>1484.43</v>
       </c>
       <c r="F46">
@@ -6737,19 +6724,19 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <v>13485.53</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>15604.94</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3">
         <v>12669.84</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <v>24203.56</v>
       </c>
       <c r="F47">
@@ -6757,19 +6744,19 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <v>11615.47</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>7283.52</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3">
         <v>10609.74</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <v>15702.89</v>
       </c>
       <c r="F48">
@@ -6777,19 +6764,19 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>14352.9</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>4058.79</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="3">
         <v>1725.84</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <v>5297.9</v>
       </c>
       <c r="F49">
@@ -6797,19 +6784,19 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <v>1350.65</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>9744.4500000000007</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <v>10462.379999999999</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <v>10528.14</v>
       </c>
       <c r="F50">
@@ -6817,16 +6804,16 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>1424.38</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="3">
         <v>819.85</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="3">
         <v>1704.95</v>
       </c>
       <c r="F51">
